--- a/Symphony/2021/AUGUST/All Details/31.08.2021/MC Bank Statement August-2021.xlsx
+++ b/Symphony/2021/AUGUST/All Details/31.08.2021/MC Bank Statement August-2021.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Expence" sheetId="15" r:id="rId3"/>
     <sheet name="Balance Transfer" sheetId="14" r:id="rId4"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId5"/>
-    <sheet name="SMS" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -169,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="243">
   <si>
     <t>Date</t>
   </si>
@@ -618,9 +617,6 @@
     <t>Masjid Market</t>
   </si>
   <si>
-    <t>Retail Name</t>
-  </si>
-  <si>
     <t>31.05.2021</t>
   </si>
   <si>
@@ -751,9 +747,6 @@
   </si>
   <si>
     <t>DSR</t>
-  </si>
-  <si>
-    <t>Rofiqul(Nokol Taka)</t>
   </si>
   <si>
     <t>03.08.2021</t>
@@ -902,14 +895,16 @@
   <si>
     <t>B=Ratry Enterprise</t>
   </si>
+  <si>
+    <t>DSR Masud Jony</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -1229,7 +1224,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1460,12 +1455,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2247,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="388">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3034,91 +3023,11 @@
     <xf numFmtId="1" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="39" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="42" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="38" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3169,10 +3078,10 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="36" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3247,18 +3156,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3286,10 +3183,22 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3370,13 +3279,13 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4045,33 +3954,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="342"/>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="343"/>
-      <c r="B2" s="340" t="s">
+      <c r="A2" s="315"/>
+      <c r="B2" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="343"/>
-      <c r="B3" s="341" t="s">
+      <c r="A3" s="315"/>
+      <c r="B3" s="313" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="343"/>
+      <c r="A4" s="315"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -4089,7 +3998,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="343"/>
+      <c r="A5" s="315"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -4107,7 +4016,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="343"/>
+      <c r="A6" s="315"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -4119,7 +4028,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="343"/>
+      <c r="A7" s="315"/>
       <c r="B7" s="28" t="s">
         <v>73</v>
       </c>
@@ -4138,7 +4047,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="343"/>
+      <c r="A8" s="315"/>
       <c r="B8" s="28" t="s">
         <v>74</v>
       </c>
@@ -4157,7 +4066,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="343"/>
+      <c r="A9" s="315"/>
       <c r="B9" s="28" t="s">
         <v>76</v>
       </c>
@@ -4176,7 +4085,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="343"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="28" t="s">
         <v>77</v>
       </c>
@@ -4195,7 +4104,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="343"/>
+      <c r="A11" s="315"/>
       <c r="B11" s="28" t="s">
         <v>78</v>
       </c>
@@ -4214,7 +4123,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="343"/>
+      <c r="A12" s="315"/>
       <c r="B12" s="28" t="s">
         <v>79</v>
       </c>
@@ -4233,7 +4142,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="343"/>
+      <c r="A13" s="315"/>
       <c r="B13" s="28" t="s">
         <v>80</v>
       </c>
@@ -4252,7 +4161,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="343"/>
+      <c r="A14" s="315"/>
       <c r="B14" s="28" t="s">
         <v>81</v>
       </c>
@@ -4271,7 +4180,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="343"/>
+      <c r="A15" s="315"/>
       <c r="B15" s="28" t="s">
         <v>82</v>
       </c>
@@ -4290,7 +4199,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="343"/>
+      <c r="A16" s="315"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -4303,7 +4212,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="343"/>
+      <c r="A17" s="315"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -4316,7 +4225,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="343"/>
+      <c r="A18" s="315"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -4329,7 +4238,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="343"/>
+      <c r="A19" s="315"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4342,7 +4251,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="343"/>
+      <c r="A20" s="315"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -4355,7 +4264,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="343"/>
+      <c r="A21" s="315"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4368,7 +4277,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="343"/>
+      <c r="A22" s="315"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -4381,7 +4290,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="343"/>
+      <c r="A23" s="315"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -4394,7 +4303,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="343"/>
+      <c r="A24" s="315"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4407,7 +4316,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="343"/>
+      <c r="A25" s="315"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4420,7 +4329,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="343"/>
+      <c r="A26" s="315"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -4433,7 +4342,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="343"/>
+      <c r="A27" s="315"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4446,7 +4355,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="343"/>
+      <c r="A28" s="315"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4459,7 +4368,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="343"/>
+      <c r="A29" s="315"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -4472,7 +4381,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="343"/>
+      <c r="A30" s="315"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4485,7 +4394,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="343"/>
+      <c r="A31" s="315"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4498,7 +4407,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="343"/>
+      <c r="A32" s="315"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -4511,7 +4420,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="343"/>
+      <c r="A33" s="315"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
       <c r="D33" s="30"/>
@@ -4524,7 +4433,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="343"/>
+      <c r="A34" s="315"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4537,7 +4446,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="343"/>
+      <c r="A35" s="315"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4550,7 +4459,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="343"/>
+      <c r="A36" s="315"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4563,7 +4472,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="343"/>
+      <c r="A37" s="315"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4576,7 +4485,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="343"/>
+      <c r="A38" s="315"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4589,7 +4498,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="343"/>
+      <c r="A39" s="315"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4602,7 +4511,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="343"/>
+      <c r="A40" s="315"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -4615,7 +4524,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="343"/>
+      <c r="A41" s="315"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4628,7 +4537,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="343"/>
+      <c r="A42" s="315"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4641,7 +4550,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="343"/>
+      <c r="A43" s="315"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -4654,7 +4563,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="343"/>
+      <c r="A44" s="315"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -4667,7 +4576,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="343"/>
+      <c r="A45" s="315"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4680,7 +4589,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="343"/>
+      <c r="A46" s="315"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4693,7 +4602,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="343"/>
+      <c r="A47" s="315"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4706,7 +4615,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="343"/>
+      <c r="A48" s="315"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -4719,7 +4628,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="343"/>
+      <c r="A49" s="315"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4732,7 +4641,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="343"/>
+      <c r="A50" s="315"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4745,7 +4654,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="343"/>
+      <c r="A51" s="315"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4758,7 +4667,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="343"/>
+      <c r="A52" s="315"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4771,7 +4680,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="343"/>
+      <c r="A53" s="315"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4784,7 +4693,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="343"/>
+      <c r="A54" s="315"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4797,7 +4706,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="343"/>
+      <c r="A55" s="315"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4809,7 +4718,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="343"/>
+      <c r="A56" s="315"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4821,7 +4730,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="343"/>
+      <c r="A57" s="315"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4833,7 +4742,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="343"/>
+      <c r="A58" s="315"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -4845,7 +4754,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="343"/>
+      <c r="A59" s="315"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -4857,7 +4766,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="343"/>
+      <c r="A60" s="315"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -4869,7 +4778,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="343"/>
+      <c r="A61" s="315"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -4881,7 +4790,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="343"/>
+      <c r="A62" s="315"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4893,7 +4802,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="343"/>
+      <c r="A63" s="315"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -4905,7 +4814,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="343"/>
+      <c r="A64" s="315"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -4917,7 +4826,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="343"/>
+      <c r="A65" s="315"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -4929,7 +4838,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="343"/>
+      <c r="A66" s="315"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -4941,7 +4850,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="343"/>
+      <c r="A67" s="315"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -4953,7 +4862,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="343"/>
+      <c r="A68" s="315"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -4965,7 +4874,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="343"/>
+      <c r="A69" s="315"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -4977,7 +4886,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="343"/>
+      <c r="A70" s="315"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -4989,7 +4898,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="343"/>
+      <c r="A71" s="315"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -5001,7 +4910,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="343"/>
+      <c r="A72" s="315"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -5013,7 +4922,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="343"/>
+      <c r="A73" s="315"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -5025,7 +4934,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="343"/>
+      <c r="A74" s="315"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -5037,7 +4946,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="343"/>
+      <c r="A75" s="315"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -5049,7 +4958,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="343"/>
+      <c r="A76" s="315"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -5061,7 +4970,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="343"/>
+      <c r="A77" s="315"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -5073,7 +4982,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="343"/>
+      <c r="A78" s="315"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -5085,7 +4994,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="343"/>
+      <c r="A79" s="315"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -5097,7 +5006,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="343"/>
+      <c r="A80" s="315"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -5109,7 +5018,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="343"/>
+      <c r="A81" s="315"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -5121,7 +5030,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="343"/>
+      <c r="A82" s="315"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -5133,7 +5042,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="343"/>
+      <c r="A83" s="315"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -5173,7 +5082,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5190,33 +5099,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="342"/>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="343"/>
-      <c r="B2" s="340" t="s">
+      <c r="A2" s="315"/>
+      <c r="B2" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="343"/>
-      <c r="B3" s="341" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
+      <c r="A3" s="315"/>
+      <c r="B3" s="313" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="343"/>
+      <c r="A4" s="315"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5234,7 +5143,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="343"/>
+      <c r="A5" s="315"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -5252,7 +5161,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="343"/>
+      <c r="A6" s="315"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -5264,9 +5173,9 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="343"/>
+      <c r="A7" s="315"/>
       <c r="B7" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="27">
         <v>0</v>
@@ -5283,9 +5192,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="343"/>
+      <c r="A8" s="315"/>
       <c r="B8" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="27">
         <v>1300000</v>
@@ -5302,9 +5211,9 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="343"/>
+      <c r="A9" s="315"/>
       <c r="B9" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="27">
         <v>573000</v>
@@ -5321,9 +5230,9 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="343"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C10" s="30">
         <v>0</v>
@@ -5340,9 +5249,9 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="343"/>
+      <c r="A11" s="315"/>
       <c r="B11" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" s="27">
         <v>875000</v>
@@ -5359,9 +5268,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="343"/>
+      <c r="A12" s="315"/>
       <c r="B12" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C12" s="27">
         <v>500000</v>
@@ -5378,9 +5287,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="343"/>
+      <c r="A13" s="315"/>
       <c r="B13" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
@@ -5397,9 +5306,9 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="343"/>
+      <c r="A14" s="315"/>
       <c r="B14" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C14" s="27">
         <v>0</v>
@@ -5416,9 +5325,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="343"/>
+      <c r="A15" s="315"/>
       <c r="B15" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="27">
         <v>1050000</v>
@@ -5435,9 +5344,9 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="343"/>
+      <c r="A16" s="315"/>
       <c r="B16" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C16" s="27">
         <v>364000</v>
@@ -5454,9 +5363,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="343"/>
+      <c r="A17" s="315"/>
       <c r="B17" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" s="27">
         <v>432000</v>
@@ -5473,9 +5382,9 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="343"/>
+      <c r="A18" s="315"/>
       <c r="B18" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" s="27">
         <v>1730000</v>
@@ -5492,9 +5401,9 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="343"/>
+      <c r="A19" s="315"/>
       <c r="B19" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
@@ -5511,9 +5420,9 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="343"/>
+      <c r="A20" s="315"/>
       <c r="B20" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C20" s="27">
         <v>0</v>
@@ -5530,9 +5439,9 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="343"/>
+      <c r="A21" s="315"/>
       <c r="B21" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="27">
         <v>1580000</v>
@@ -5549,9 +5458,9 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="343"/>
+      <c r="A22" s="315"/>
       <c r="B22" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C22" s="27">
         <v>700000</v>
@@ -5568,9 +5477,9 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="343"/>
+      <c r="A23" s="315"/>
       <c r="B23" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C23" s="27">
         <v>900000</v>
@@ -5587,9 +5496,9 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="343"/>
+      <c r="A24" s="315"/>
       <c r="B24" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C24" s="27">
         <v>500000</v>
@@ -5606,9 +5515,9 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="343"/>
+      <c r="A25" s="315"/>
       <c r="B25" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C25" s="27">
         <v>0</v>
@@ -5625,9 +5534,9 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="343"/>
+      <c r="A26" s="315"/>
       <c r="B26" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C26" s="27">
         <v>1600000</v>
@@ -5644,9 +5553,9 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="343"/>
+      <c r="A27" s="315"/>
       <c r="B27" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C27" s="27">
         <v>850000</v>
@@ -5663,9 +5572,9 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="343"/>
+      <c r="A28" s="315"/>
       <c r="B28" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C28" s="27">
         <v>567000</v>
@@ -5682,9 +5591,9 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="343"/>
+      <c r="A29" s="315"/>
       <c r="B29" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C29" s="27">
         <v>590000</v>
@@ -5701,9 +5610,9 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="343"/>
+      <c r="A30" s="315"/>
       <c r="B30" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C30" s="27">
         <v>481000</v>
@@ -5720,9 +5629,9 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="343"/>
+      <c r="A31" s="315"/>
       <c r="B31" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C31" s="27">
         <v>0</v>
@@ -5739,9 +5648,9 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="343"/>
+      <c r="A32" s="315"/>
       <c r="B32" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C32" s="27">
         <v>1350000</v>
@@ -5758,9 +5667,9 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="343"/>
+      <c r="A33" s="315"/>
       <c r="B33" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C33" s="27">
         <v>0</v>
@@ -5777,9 +5686,9 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="343"/>
+      <c r="A34" s="315"/>
       <c r="B34" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C34" s="27">
         <v>750000</v>
@@ -5796,9 +5705,9 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="343"/>
+      <c r="A35" s="315"/>
       <c r="B35" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C35" s="27">
         <v>800000</v>
@@ -5815,7 +5724,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="343"/>
+      <c r="A36" s="315"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -5828,7 +5737,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="343"/>
+      <c r="A37" s="315"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -5841,7 +5750,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="343"/>
+      <c r="A38" s="315"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -5854,7 +5763,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="343"/>
+      <c r="A39" s="315"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -5867,7 +5776,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="343"/>
+      <c r="A40" s="315"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -5880,7 +5789,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="343"/>
+      <c r="A41" s="315"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -5893,7 +5802,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="343"/>
+      <c r="A42" s="315"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -5906,7 +5815,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="343"/>
+      <c r="A43" s="315"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -5919,7 +5828,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="343"/>
+      <c r="A44" s="315"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -5932,7 +5841,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="343"/>
+      <c r="A45" s="315"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -5945,7 +5854,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="343"/>
+      <c r="A46" s="315"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -5958,7 +5867,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="343"/>
+      <c r="A47" s="315"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -5971,7 +5880,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="343"/>
+      <c r="A48" s="315"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -5984,7 +5893,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="343"/>
+      <c r="A49" s="315"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -5997,7 +5906,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="343"/>
+      <c r="A50" s="315"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -6010,7 +5919,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="343"/>
+      <c r="A51" s="315"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -6023,7 +5932,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="343"/>
+      <c r="A52" s="315"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -6036,7 +5945,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="343"/>
+      <c r="A53" s="315"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -6049,7 +5958,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="343"/>
+      <c r="A54" s="315"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -6062,7 +5971,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="343"/>
+      <c r="A55" s="315"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -6074,7 +5983,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="343"/>
+      <c r="A56" s="315"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -6086,7 +5995,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="343"/>
+      <c r="A57" s="315"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -6098,7 +6007,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="343"/>
+      <c r="A58" s="315"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -6110,7 +6019,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="343"/>
+      <c r="A59" s="315"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -6122,7 +6031,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="343"/>
+      <c r="A60" s="315"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -6134,7 +6043,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="343"/>
+      <c r="A61" s="315"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -6146,7 +6055,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="343"/>
+      <c r="A62" s="315"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -6158,7 +6067,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="343"/>
+      <c r="A63" s="315"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -6170,7 +6079,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="343"/>
+      <c r="A64" s="315"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -6182,7 +6091,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="343"/>
+      <c r="A65" s="315"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -6194,7 +6103,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="343"/>
+      <c r="A66" s="315"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -6206,7 +6115,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="343"/>
+      <c r="A67" s="315"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -6218,7 +6127,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="343"/>
+      <c r="A68" s="315"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -6230,7 +6139,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="343"/>
+      <c r="A69" s="315"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -6242,7 +6151,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="343"/>
+      <c r="A70" s="315"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -6254,7 +6163,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="343"/>
+      <c r="A71" s="315"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -6266,7 +6175,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="343"/>
+      <c r="A72" s="315"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -6278,7 +6187,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="343"/>
+      <c r="A73" s="315"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -6290,7 +6199,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="343"/>
+      <c r="A74" s="315"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -6302,7 +6211,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="343"/>
+      <c r="A75" s="315"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -6314,7 +6223,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="343"/>
+      <c r="A76" s="315"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -6326,7 +6235,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="343"/>
+      <c r="A77" s="315"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -6338,7 +6247,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="343"/>
+      <c r="A78" s="315"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -6350,7 +6259,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="343"/>
+      <c r="A79" s="315"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -6362,7 +6271,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="343"/>
+      <c r="A80" s="315"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -6374,7 +6283,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="343"/>
+      <c r="A81" s="315"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -6386,7 +6295,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="343"/>
+      <c r="A82" s="315"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -6398,7 +6307,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="343"/>
+      <c r="A83" s="315"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -6450,67 +6359,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="316" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
-      <c r="G1" s="348"/>
-      <c r="H1" s="348"/>
-      <c r="I1" s="348"/>
-      <c r="J1" s="348"/>
-      <c r="K1" s="348"/>
-      <c r="L1" s="348"/>
-      <c r="M1" s="348"/>
-      <c r="N1" s="348"/>
-      <c r="O1" s="348"/>
-      <c r="P1" s="348"/>
-      <c r="Q1" s="348"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="316"/>
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="316"/>
+      <c r="P1" s="316"/>
+      <c r="Q1" s="316"/>
     </row>
     <row r="2" spans="1:24" s="85" customFormat="1" ht="18">
-      <c r="A2" s="349" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="349"/>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
-      <c r="F2" s="349"/>
-      <c r="G2" s="349"/>
-      <c r="H2" s="349"/>
-      <c r="I2" s="349"/>
-      <c r="J2" s="349"/>
-      <c r="K2" s="349"/>
-      <c r="L2" s="349"/>
-      <c r="M2" s="349"/>
-      <c r="N2" s="349"/>
-      <c r="O2" s="349"/>
-      <c r="P2" s="349"/>
-      <c r="Q2" s="349"/>
+      <c r="A2" s="317" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="317"/>
+      <c r="C2" s="317"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="317"/>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="317"/>
+      <c r="L2" s="317"/>
+      <c r="M2" s="317"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="317"/>
+      <c r="Q2" s="317"/>
     </row>
     <row r="3" spans="1:24" s="86" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="350" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351"/>
-      <c r="F3" s="351"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="351"/>
-      <c r="I3" s="351"/>
-      <c r="J3" s="351"/>
-      <c r="K3" s="351"/>
-      <c r="L3" s="351"/>
-      <c r="M3" s="351"/>
-      <c r="N3" s="351"/>
-      <c r="O3" s="351"/>
-      <c r="P3" s="351"/>
-      <c r="Q3" s="352"/>
+      <c r="A3" s="318" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="319"/>
+      <c r="J3" s="319"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="319"/>
+      <c r="M3" s="319"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="319"/>
+      <c r="P3" s="319"/>
+      <c r="Q3" s="320"/>
       <c r="S3" s="68"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6519,52 +6428,52 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="87" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="353" t="s">
+      <c r="A4" s="321" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="355" t="s">
+      <c r="B4" s="323" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="344" t="s">
+      <c r="C4" s="325" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="344" t="s">
+      <c r="D4" s="325" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="344" t="s">
+      <c r="E4" s="325" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="344" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="344" t="s">
+      <c r="F4" s="325" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="325" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="344" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="344" t="s">
-        <v>182</v>
-      </c>
-      <c r="J4" s="344" t="s">
+      <c r="H4" s="325" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="325" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="325" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="344" t="s">
+      <c r="K4" s="325" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="344" t="s">
+      <c r="L4" s="325" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="344" t="s">
+      <c r="M4" s="325" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="344" t="s">
+      <c r="N4" s="325" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="346" t="s">
+      <c r="O4" s="329" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="357" t="s">
+      <c r="P4" s="327" t="s">
         <v>88</v>
       </c>
       <c r="Q4" s="156" t="s">
@@ -6577,22 +6486,22 @@
       <c r="W4" s="89"/>
     </row>
     <row r="5" spans="1:24" s="87" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="354"/>
-      <c r="B5" s="356"/>
-      <c r="C5" s="345"/>
-      <c r="D5" s="345"/>
-      <c r="E5" s="345"/>
-      <c r="F5" s="345"/>
-      <c r="G5" s="345"/>
-      <c r="H5" s="345"/>
-      <c r="I5" s="345"/>
-      <c r="J5" s="345"/>
-      <c r="K5" s="345"/>
-      <c r="L5" s="345"/>
-      <c r="M5" s="345"/>
-      <c r="N5" s="345"/>
-      <c r="O5" s="347"/>
-      <c r="P5" s="358"/>
+      <c r="A5" s="322"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="326"/>
+      <c r="D5" s="326"/>
+      <c r="E5" s="326"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="326"/>
+      <c r="H5" s="326"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
+      <c r="K5" s="326"/>
+      <c r="L5" s="326"/>
+      <c r="M5" s="326"/>
+      <c r="N5" s="326"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="328"/>
       <c r="Q5" s="157" t="s">
         <v>58</v>
       </c>
@@ -6605,7 +6514,7 @@
     </row>
     <row r="6" spans="1:24" s="14" customFormat="1">
       <c r="A6" s="94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="95">
         <v>1000</v>
@@ -6643,7 +6552,7 @@
     </row>
     <row r="7" spans="1:24" s="14" customFormat="1">
       <c r="A7" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="95">
         <v>1900</v>
@@ -6681,7 +6590,7 @@
     </row>
     <row r="8" spans="1:24" s="14" customFormat="1">
       <c r="A8" s="94" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" s="102">
         <v>50</v>
@@ -6725,7 +6634,7 @@
     </row>
     <row r="9" spans="1:24" s="14" customFormat="1">
       <c r="A9" s="94" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" s="102">
         <v>500</v>
@@ -6769,7 +6678,7 @@
     </row>
     <row r="10" spans="1:24" s="14" customFormat="1">
       <c r="A10" s="94" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10" s="102">
         <v>1300</v>
@@ -6811,7 +6720,7 @@
     </row>
     <row r="11" spans="1:24" s="14" customFormat="1">
       <c r="A11" s="94" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="102">
         <v>600</v>
@@ -6851,7 +6760,7 @@
     </row>
     <row r="12" spans="1:24" s="14" customFormat="1">
       <c r="A12" s="94" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="102">
         <v>500</v>
@@ -6893,7 +6802,7 @@
     </row>
     <row r="13" spans="1:24" s="14" customFormat="1">
       <c r="A13" s="94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13" s="102">
         <v>800</v>
@@ -6935,7 +6844,7 @@
     </row>
     <row r="14" spans="1:24" s="14" customFormat="1">
       <c r="A14" s="94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B14" s="102">
         <v>1100</v>
@@ -6977,7 +6886,7 @@
     </row>
     <row r="15" spans="1:24" s="14" customFormat="1">
       <c r="A15" s="94" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B15" s="102">
         <v>1000</v>
@@ -7021,7 +6930,7 @@
     </row>
     <row r="16" spans="1:24" s="14" customFormat="1">
       <c r="A16" s="94" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B16" s="102">
         <v>400</v>
@@ -7065,7 +6974,7 @@
     </row>
     <row r="17" spans="1:23" s="14" customFormat="1">
       <c r="A17" s="94" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" s="102">
         <v>1600</v>
@@ -7107,7 +7016,7 @@
     </row>
     <row r="18" spans="1:23" s="14" customFormat="1">
       <c r="A18" s="94" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B18" s="102">
         <v>500</v>
@@ -7149,7 +7058,7 @@
     </row>
     <row r="19" spans="1:23" s="14" customFormat="1">
       <c r="A19" s="94" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" s="102">
         <v>400</v>
@@ -7191,7 +7100,7 @@
     </row>
     <row r="20" spans="1:23" s="14" customFormat="1">
       <c r="A20" s="94" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B20" s="102">
         <v>1100</v>
@@ -7233,7 +7142,7 @@
     </row>
     <row r="21" spans="1:23" s="14" customFormat="1">
       <c r="A21" s="94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B21" s="102">
         <v>700</v>
@@ -7267,7 +7176,7 @@
     </row>
     <row r="22" spans="1:23" s="14" customFormat="1">
       <c r="A22" s="94" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B22" s="102">
         <v>600</v>
@@ -7307,7 +7216,7 @@
     </row>
     <row r="23" spans="1:23" s="110" customFormat="1">
       <c r="A23" s="94" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B23" s="102">
         <v>1350</v>
@@ -7349,7 +7258,7 @@
     </row>
     <row r="24" spans="1:23" s="14" customFormat="1">
       <c r="A24" s="94" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B24" s="102">
         <v>500</v>
@@ -7386,7 +7295,7 @@
     </row>
     <row r="25" spans="1:23" s="110" customFormat="1">
       <c r="A25" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B25" s="102"/>
       <c r="C25" s="95"/>
@@ -7422,7 +7331,7 @@
     </row>
     <row r="26" spans="1:23" s="14" customFormat="1">
       <c r="A26" s="94" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B26" s="102">
         <v>1950</v>
@@ -7460,7 +7369,7 @@
     </row>
     <row r="27" spans="1:23" s="14" customFormat="1">
       <c r="A27" s="94" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" s="102">
         <v>700</v>
@@ -7496,7 +7405,7 @@
     </row>
     <row r="28" spans="1:23" s="14" customFormat="1">
       <c r="A28" s="94" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B28" s="102"/>
       <c r="C28" s="95"/>
@@ -7532,7 +7441,7 @@
     </row>
     <row r="29" spans="1:23" s="14" customFormat="1">
       <c r="A29" s="94" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B29" s="102">
         <v>1350</v>
@@ -7570,7 +7479,7 @@
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1">
       <c r="A30" s="94" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B30" s="102">
         <v>1000</v>
@@ -7612,7 +7521,7 @@
     </row>
     <row r="31" spans="1:23" s="14" customFormat="1">
       <c r="A31" s="94" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B31" s="102"/>
       <c r="C31" s="95"/>
@@ -7647,7 +7556,7 @@
     </row>
     <row r="32" spans="1:23" s="110" customFormat="1">
       <c r="A32" s="94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B32" s="102"/>
       <c r="C32" s="95"/>
@@ -7843,7 +7752,7 @@
         <f>SUM(Q6:Q36)</f>
         <v>68912</v>
       </c>
-      <c r="S37" s="301" t="s">
+      <c r="S37" s="273" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9847,8 +9756,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9866,6 +9773,8 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9879,8 +9788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9906,14 +9815,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="335" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="364"/>
-      <c r="C1" s="364"/>
-      <c r="D1" s="364"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="365"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="337"/>
       <c r="G1" s="80"/>
       <c r="H1" s="80"/>
       <c r="I1" s="174"/>
@@ -10007,14 +9916,14 @@
       <c r="CS1" s="169"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="366" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="367"/>
-      <c r="C2" s="367"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="367"/>
-      <c r="F2" s="368"/>
+      <c r="A2" s="338" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="340"/>
       <c r="G2" s="80"/>
       <c r="H2" s="80"/>
       <c r="I2" s="174"/>
@@ -10108,14 +10017,14 @@
       <c r="CS2" s="169"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="341" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="370"/>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="371"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="343"/>
       <c r="G3" s="80"/>
       <c r="H3" s="80"/>
       <c r="I3" s="174"/>
@@ -10224,11 +10133,11 @@
       <c r="E4" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="302" t="s">
+      <c r="F4" s="274" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="167" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H4" s="80"/>
       <c r="I4" s="174"/>
@@ -10323,7 +10232,7 @@
     </row>
     <row r="5" spans="1:97">
       <c r="A5" s="215" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="66">
         <v>521540</v>
@@ -10338,8 +10247,8 @@
         <f>C5+D5</f>
         <v>594676</v>
       </c>
-      <c r="F5" s="303"/>
-      <c r="G5" s="311"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="283"/>
       <c r="H5" s="174"/>
       <c r="I5" s="179"/>
       <c r="J5" s="174"/>
@@ -10433,7 +10342,7 @@
     </row>
     <row r="6" spans="1:97">
       <c r="A6" s="216" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="67">
         <v>587725</v>
@@ -10448,8 +10357,8 @@
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
         <v>620215</v>
       </c>
-      <c r="F6" s="304"/>
-      <c r="G6" s="312"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="284"/>
       <c r="H6" s="182"/>
       <c r="I6" s="179"/>
       <c r="J6" s="174"/>
@@ -10543,7 +10452,7 @@
     </row>
     <row r="7" spans="1:97">
       <c r="A7" s="216" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B7" s="67">
         <v>424580</v>
@@ -10558,8 +10467,8 @@
         <f t="shared" si="0"/>
         <v>451580</v>
       </c>
-      <c r="F7" s="304"/>
-      <c r="G7" s="312"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="284"/>
       <c r="H7" s="182"/>
       <c r="I7" s="179"/>
       <c r="J7" s="174"/>
@@ -10653,7 +10562,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="216" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B8" s="67">
         <v>524225</v>
@@ -10668,8 +10577,8 @@
         <f t="shared" si="0"/>
         <v>430985</v>
       </c>
-      <c r="F8" s="305"/>
-      <c r="G8" s="311"/>
+      <c r="F8" s="277"/>
+      <c r="G8" s="283"/>
       <c r="H8" s="174"/>
       <c r="I8" s="179"/>
       <c r="J8" s="179"/>
@@ -10763,7 +10672,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="216" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="67">
         <v>403050</v>
@@ -10778,8 +10687,8 @@
         <f t="shared" si="0"/>
         <v>480240</v>
       </c>
-      <c r="F9" s="306"/>
-      <c r="G9" s="311"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="283"/>
       <c r="H9" s="174"/>
       <c r="I9" s="179"/>
       <c r="J9" s="179"/>
@@ -10873,7 +10782,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="216" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="67">
         <v>525420</v>
@@ -10888,8 +10797,8 @@
         <f t="shared" si="0"/>
         <v>516420</v>
       </c>
-      <c r="F10" s="307"/>
-      <c r="G10" s="311"/>
+      <c r="F10" s="279"/>
+      <c r="G10" s="283"/>
       <c r="H10" s="174"/>
       <c r="I10" s="179"/>
       <c r="J10" s="179"/>
@@ -10983,7 +10892,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="216" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B11" s="67">
         <v>550730</v>
@@ -10998,8 +10907,8 @@
         <f t="shared" si="0"/>
         <v>570350</v>
       </c>
-      <c r="F11" s="305"/>
-      <c r="G11" s="313"/>
+      <c r="F11" s="277"/>
+      <c r="G11" s="285"/>
       <c r="H11" s="179"/>
       <c r="I11" s="179"/>
       <c r="J11" s="179"/>
@@ -11093,7 +11002,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="216" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B12" s="67">
         <v>370170</v>
@@ -11108,8 +11017,8 @@
         <f t="shared" si="0"/>
         <v>370170</v>
       </c>
-      <c r="F12" s="305"/>
-      <c r="G12" s="313"/>
+      <c r="F12" s="277"/>
+      <c r="G12" s="285"/>
       <c r="H12" s="179"/>
       <c r="I12" s="179"/>
       <c r="J12" s="179"/>
@@ -11203,7 +11112,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="216" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B13" s="67">
         <v>495310</v>
@@ -11218,8 +11127,8 @@
         <f t="shared" si="0"/>
         <v>6075</v>
       </c>
-      <c r="F13" s="307"/>
-      <c r="G13" s="311"/>
+      <c r="F13" s="279"/>
+      <c r="G13" s="283"/>
       <c r="H13" s="174"/>
       <c r="I13" s="179"/>
       <c r="J13" s="179"/>
@@ -11313,7 +11222,7 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="216" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="67">
         <v>633150</v>
@@ -11328,8 +11237,8 @@
         <f t="shared" si="0"/>
         <v>1065215</v>
       </c>
-      <c r="F14" s="306"/>
-      <c r="G14" s="311"/>
+      <c r="F14" s="278"/>
+      <c r="G14" s="283"/>
       <c r="H14" s="174"/>
       <c r="I14" s="179"/>
       <c r="J14" s="179"/>
@@ -11423,7 +11332,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="216" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" s="67">
         <v>760420</v>
@@ -11438,8 +11347,8 @@
         <f t="shared" si="0"/>
         <v>703625</v>
       </c>
-      <c r="F15" s="305"/>
-      <c r="G15" s="313"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="285"/>
       <c r="H15" s="179"/>
       <c r="I15" s="179"/>
       <c r="J15" s="179"/>
@@ -11533,7 +11442,7 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" s="216" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B16" s="67">
         <v>1335130</v>
@@ -11548,8 +11457,8 @@
         <f t="shared" si="0"/>
         <v>1066155</v>
       </c>
-      <c r="F16" s="305"/>
-      <c r="G16" s="313"/>
+      <c r="F16" s="277"/>
+      <c r="G16" s="285"/>
       <c r="H16" s="179"/>
       <c r="I16" s="179"/>
       <c r="J16" s="179"/>
@@ -11643,7 +11552,7 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" s="216" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B17" s="67">
         <v>1003685</v>
@@ -11658,8 +11567,8 @@
         <f t="shared" si="0"/>
         <v>963580</v>
       </c>
-      <c r="F17" s="304"/>
-      <c r="G17" s="312"/>
+      <c r="F17" s="276"/>
+      <c r="G17" s="284"/>
       <c r="H17" s="182"/>
       <c r="I17" s="179"/>
       <c r="J17" s="179"/>
@@ -11753,7 +11662,7 @@
     </row>
     <row r="18" spans="1:97">
       <c r="A18" s="216" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" s="67">
         <v>554435</v>
@@ -11768,8 +11677,8 @@
         <f t="shared" si="0"/>
         <v>602250</v>
       </c>
-      <c r="F18" s="307"/>
-      <c r="G18" s="311"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="283"/>
       <c r="H18" s="174"/>
       <c r="I18" s="179"/>
       <c r="J18" s="179"/>
@@ -11863,7 +11772,7 @@
     </row>
     <row r="19" spans="1:97">
       <c r="A19" s="216" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B19" s="67">
         <v>759135</v>
@@ -11878,8 +11787,8 @@
         <f>C19+D19</f>
         <v>730485</v>
       </c>
-      <c r="F19" s="306"/>
-      <c r="G19" s="311"/>
+      <c r="F19" s="278"/>
+      <c r="G19" s="283"/>
       <c r="H19" s="174"/>
       <c r="I19" s="179"/>
       <c r="J19" s="179"/>
@@ -11973,7 +11882,7 @@
     </row>
     <row r="20" spans="1:97">
       <c r="A20" s="216" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B20" s="67">
         <v>623260</v>
@@ -11988,8 +11897,8 @@
         <f t="shared" ref="E20:E23" si="1">C20+D20</f>
         <v>645595</v>
       </c>
-      <c r="F20" s="304"/>
-      <c r="G20" s="311"/>
+      <c r="F20" s="276"/>
+      <c r="G20" s="283"/>
       <c r="H20" s="174"/>
       <c r="I20" s="179"/>
       <c r="J20" s="179"/>
@@ -12083,7 +11992,7 @@
     </row>
     <row r="21" spans="1:97">
       <c r="A21" s="216" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" s="67">
         <v>1068195</v>
@@ -12098,8 +12007,8 @@
         <f t="shared" si="1"/>
         <v>1163990</v>
       </c>
-      <c r="F21" s="304"/>
-      <c r="G21" s="311"/>
+      <c r="F21" s="276"/>
+      <c r="G21" s="283"/>
       <c r="H21" s="174"/>
       <c r="I21" s="179"/>
       <c r="J21" s="179"/>
@@ -12193,7 +12102,7 @@
     </row>
     <row r="22" spans="1:97">
       <c r="A22" s="216" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" s="67">
         <v>589580</v>
@@ -12208,8 +12117,8 @@
         <f t="shared" si="1"/>
         <v>673190</v>
       </c>
-      <c r="F22" s="304"/>
-      <c r="G22" s="311"/>
+      <c r="F22" s="276"/>
+      <c r="G22" s="283"/>
       <c r="H22" s="174"/>
       <c r="I22" s="179"/>
       <c r="J22" s="179"/>
@@ -12303,7 +12212,7 @@
     </row>
     <row r="23" spans="1:97">
       <c r="A23" s="216" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B23" s="67">
         <v>763770</v>
@@ -12318,8 +12227,8 @@
         <f t="shared" si="1"/>
         <v>790735</v>
       </c>
-      <c r="F23" s="304"/>
-      <c r="G23" s="312"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="284"/>
       <c r="H23" s="182"/>
       <c r="I23" s="179"/>
       <c r="J23" s="179"/>
@@ -12413,7 +12322,7 @@
     </row>
     <row r="24" spans="1:97">
       <c r="A24" s="216" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B24" s="67">
         <v>572165</v>
@@ -12428,8 +12337,8 @@
         <f t="shared" si="0"/>
         <v>630165</v>
       </c>
-      <c r="F24" s="304"/>
-      <c r="G24" s="312"/>
+      <c r="F24" s="276"/>
+      <c r="G24" s="284"/>
       <c r="H24" s="182"/>
       <c r="I24" s="179"/>
       <c r="J24" s="179"/>
@@ -12523,7 +12432,7 @@
     </row>
     <row r="25" spans="1:97">
       <c r="A25" s="216" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B25" s="67">
         <v>775435</v>
@@ -12538,8 +12447,8 @@
         <f t="shared" si="0"/>
         <v>593675</v>
       </c>
-      <c r="F25" s="306"/>
-      <c r="G25" s="311"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="283"/>
       <c r="H25" s="174"/>
       <c r="I25" s="179"/>
       <c r="J25" s="179"/>
@@ -12633,7 +12542,7 @@
     </row>
     <row r="26" spans="1:97">
       <c r="A26" s="216" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B26" s="67">
         <v>425820</v>
@@ -12648,8 +12557,8 @@
         <f t="shared" si="0"/>
         <v>476460</v>
       </c>
-      <c r="F26" s="308"/>
-      <c r="G26" s="311"/>
+      <c r="F26" s="280"/>
+      <c r="G26" s="283"/>
       <c r="H26" s="174"/>
       <c r="I26" s="179"/>
       <c r="J26" s="179"/>
@@ -12743,7 +12652,7 @@
     </row>
     <row r="27" spans="1:97">
       <c r="A27" s="216" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B27" s="67">
         <v>750835</v>
@@ -12758,8 +12667,8 @@
         <f t="shared" si="0"/>
         <v>775190</v>
       </c>
-      <c r="F27" s="306"/>
-      <c r="G27" s="311"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="283"/>
       <c r="H27" s="174"/>
       <c r="I27" s="179"/>
       <c r="J27" s="179"/>
@@ -12853,7 +12762,7 @@
     </row>
     <row r="28" spans="1:97">
       <c r="A28" s="216" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B28" s="67">
         <v>601015</v>
@@ -12868,8 +12777,8 @@
         <f t="shared" si="0"/>
         <v>586790</v>
       </c>
-      <c r="F28" s="306"/>
-      <c r="G28" s="311"/>
+      <c r="F28" s="278"/>
+      <c r="G28" s="283"/>
       <c r="H28" s="174"/>
       <c r="I28" s="179"/>
       <c r="J28" s="179"/>
@@ -12963,7 +12872,7 @@
     </row>
     <row r="29" spans="1:97">
       <c r="A29" s="216" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B29" s="67">
         <v>729290</v>
@@ -12978,8 +12887,8 @@
         <f t="shared" si="0"/>
         <v>804015</v>
       </c>
-      <c r="F29" s="306"/>
-      <c r="G29" s="311"/>
+      <c r="F29" s="278"/>
+      <c r="G29" s="283"/>
       <c r="H29" s="174"/>
       <c r="I29" s="179"/>
       <c r="J29" s="179"/>
@@ -13073,7 +12982,7 @@
     </row>
     <row r="30" spans="1:97">
       <c r="A30" s="216" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B30" s="67">
         <v>722000</v>
@@ -13088,8 +12997,8 @@
         <f t="shared" si="0"/>
         <v>776208</v>
       </c>
-      <c r="F30" s="305"/>
-      <c r="G30" s="314"/>
+      <c r="F30" s="277"/>
+      <c r="G30" s="286"/>
       <c r="H30" s="172"/>
       <c r="I30" s="191"/>
       <c r="J30" s="172"/>
@@ -13183,23 +13092,23 @@
     </row>
     <row r="31" spans="1:97">
       <c r="A31" s="216" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31" s="67">
         <v>610630</v>
       </c>
       <c r="C31" s="67">
-        <v>770257</v>
+        <v>771257</v>
       </c>
       <c r="D31" s="67">
         <v>11549</v>
       </c>
       <c r="E31" s="67">
         <f t="shared" si="0"/>
-        <v>781806</v>
-      </c>
-      <c r="F31" s="305"/>
-      <c r="G31" s="315"/>
+        <v>782806</v>
+      </c>
+      <c r="F31" s="277"/>
+      <c r="G31" s="287"/>
       <c r="H31" s="172"/>
       <c r="I31" s="191"/>
       <c r="J31" s="192"/>
@@ -13300,8 +13209,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="309"/>
-      <c r="G32" s="316"/>
+      <c r="F32" s="281"/>
+      <c r="G32" s="288"/>
       <c r="H32" s="183"/>
       <c r="I32" s="171"/>
       <c r="J32" s="192"/>
@@ -13403,7 +13312,7 @@
       </c>
       <c r="C33" s="225">
         <f>SUM(C5:C32)</f>
-        <v>17802828</v>
+        <v>17803828</v>
       </c>
       <c r="D33" s="225">
         <f>SUM(D5:D32)</f>
@@ -13411,13 +13320,13 @@
       </c>
       <c r="E33" s="225">
         <f>SUM(E5:E32)</f>
-        <v>17869840</v>
-      </c>
-      <c r="F33" s="310">
+        <v>17870840</v>
+      </c>
+      <c r="F33" s="282">
         <f>B33-E33</f>
-        <v>-189140</v>
-      </c>
-      <c r="G33" s="315"/>
+        <v>-190140</v>
+      </c>
+      <c r="G33" s="287"/>
       <c r="H33" s="170"/>
       <c r="I33" s="171"/>
       <c r="J33" s="172"/>
@@ -13610,12 +13519,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="164"/>
-      <c r="B35" s="361" t="s">
+      <c r="B35" s="333" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="361"/>
-      <c r="D35" s="361"/>
-      <c r="E35" s="361"/>
+      <c r="C35" s="333"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
       <c r="F35" s="165"/>
       <c r="G35" s="170"/>
       <c r="H35" s="170"/>
@@ -13825,17 +13734,17 @@
       <c r="A37" s="220" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="333" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="334" t="s">
-        <v>212</v>
+      <c r="B37" s="305" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="306" t="s">
+        <v>210</v>
       </c>
       <c r="D37" s="247">
         <v>2800</v>
       </c>
       <c r="E37" s="221" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F37" s="165"/>
       <c r="G37" s="170"/>
@@ -13935,16 +13844,16 @@
         <v>140</v>
       </c>
       <c r="B38" s="77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" s="248">
         <v>2770</v>
       </c>
       <c r="E38" s="210" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F38" s="163"/>
       <c r="G38" s="170"/>
@@ -14043,18 +13952,10 @@
       <c r="A39" s="220" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="248">
-        <v>1000</v>
-      </c>
-      <c r="E39" s="209" t="s">
-        <v>192</v>
-      </c>
+      <c r="B39" s="77"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="248"/>
+      <c r="E39" s="209"/>
       <c r="F39" s="163"/>
       <c r="G39" s="170"/>
       <c r="H39" s="170"/>
@@ -14462,10 +14363,10 @@
       <c r="D43" s="248"/>
       <c r="E43" s="210"/>
       <c r="F43" s="165"/>
-      <c r="G43" s="362"/>
-      <c r="H43" s="362"/>
-      <c r="I43" s="362"/>
-      <c r="J43" s="362"/>
+      <c r="G43" s="334"/>
+      <c r="H43" s="334"/>
+      <c r="I43" s="334"/>
+      <c r="J43" s="334"/>
       <c r="K43" s="80"/>
       <c r="L43" s="174"/>
       <c r="M43" s="80"/>
@@ -14781,7 +14682,7 @@
         <v>148</v>
       </c>
       <c r="B46" s="218" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="159">
         <v>1718911905</v>
@@ -14790,12 +14691,12 @@
         <v>307000</v>
       </c>
       <c r="E46" s="219" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F46" s="162"/>
       <c r="G46" s="169"/>
       <c r="H46" s="230" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I46" s="231">
         <v>1718911905</v>
@@ -14804,7 +14705,7 @@
         <v>423150</v>
       </c>
       <c r="K46" s="159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L46" s="233">
         <v>423150</v>
@@ -14903,7 +14804,7 @@
         <v>148</v>
       </c>
       <c r="B47" s="144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C47" s="139">
         <v>1716697790</v>
@@ -14912,12 +14813,12 @@
         <v>252825</v>
       </c>
       <c r="E47" s="211" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F47" s="163"/>
       <c r="G47" s="169"/>
       <c r="H47" s="226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I47" s="75">
         <v>1716697790</v>
@@ -15025,7 +14926,7 @@
         <v>148</v>
       </c>
       <c r="B48" s="73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C48" s="139">
         <v>1733624262</v>
@@ -15034,12 +14935,12 @@
         <v>198886</v>
       </c>
       <c r="E48" s="212" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F48" s="163"/>
       <c r="G48" s="169"/>
       <c r="H48" s="226" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I48" s="75">
         <v>1733624262</v>
@@ -15147,7 +15048,7 @@
         <v>148</v>
       </c>
       <c r="B49" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C49" s="139">
         <v>1711460131</v>
@@ -15156,12 +15057,12 @@
         <v>200000</v>
       </c>
       <c r="E49" s="211" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F49" s="163"/>
       <c r="G49" s="169"/>
       <c r="H49" s="226" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I49" s="75">
         <v>1711460131</v>
@@ -15269,7 +15170,7 @@
         <v>148</v>
       </c>
       <c r="B50" s="73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" s="139">
         <v>1743942020</v>
@@ -15278,12 +15179,12 @@
         <v>186519</v>
       </c>
       <c r="E50" s="212" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F50" s="163"/>
       <c r="G50" s="169"/>
       <c r="H50" s="208" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I50" s="76">
         <v>1743942020</v>
@@ -15391,7 +15292,7 @@
         <v>148</v>
       </c>
       <c r="B51" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C51" s="139">
         <v>1712688979</v>
@@ -15405,7 +15306,7 @@
       <c r="F51" s="163"/>
       <c r="G51" s="169"/>
       <c r="H51" s="226" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I51" s="75">
         <v>1712688979</v>
@@ -15513,7 +15414,7 @@
         <v>148</v>
       </c>
       <c r="B52" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C52" s="139">
         <v>1739791780</v>
@@ -15522,12 +15423,12 @@
         <v>48990</v>
       </c>
       <c r="E52" s="211" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F52" s="163"/>
       <c r="G52" s="169"/>
       <c r="H52" s="226" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I52" s="75">
         <v>1739791780</v>
@@ -15536,7 +15437,7 @@
         <v>45360</v>
       </c>
       <c r="K52" s="204" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L52" s="160">
         <v>45360</v>
@@ -15635,7 +15536,7 @@
         <v>148</v>
       </c>
       <c r="B53" s="72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C53" s="139">
         <v>1723246584</v>
@@ -15644,12 +15545,12 @@
         <v>40856</v>
       </c>
       <c r="E53" s="213" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F53" s="163"/>
       <c r="G53" s="169"/>
       <c r="H53" s="226" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I53" s="75">
         <v>1723246584</v>
@@ -15658,7 +15559,7 @@
         <v>43360</v>
       </c>
       <c r="K53" s="204" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L53" s="160">
         <v>43360</v>
@@ -15757,7 +15658,7 @@
         <v>148</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" s="139">
         <v>1725821212</v>
@@ -15766,12 +15667,12 @@
         <v>14554</v>
       </c>
       <c r="E54" s="213" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F54" s="163"/>
       <c r="G54" s="169"/>
       <c r="H54" s="228" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I54" s="81">
         <v>1725821212</v>
@@ -15780,7 +15681,7 @@
         <v>15000</v>
       </c>
       <c r="K54" s="204" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L54" s="160">
         <v>15000</v>
@@ -16092,7 +15993,7 @@
         <v>13620</v>
       </c>
       <c r="E57" s="213" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F57" s="163"/>
       <c r="G57" s="169"/>
@@ -16106,7 +16007,7 @@
         <v>13620</v>
       </c>
       <c r="K57" s="204" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L57" s="160">
         <v>13620</v>
@@ -16214,7 +16115,7 @@
         <v>13500</v>
       </c>
       <c r="E58" s="212" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F58" s="163"/>
       <c r="G58" s="169"/>
@@ -16228,7 +16129,7 @@
         <v>13500</v>
       </c>
       <c r="K58" s="204" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L58" s="160">
         <v>13500</v>
@@ -16336,7 +16237,7 @@
         <v>2300</v>
       </c>
       <c r="E59" s="211" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F59" s="163"/>
       <c r="G59" s="169"/>
@@ -16350,7 +16251,7 @@
         <v>2300</v>
       </c>
       <c r="K59" s="204" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L59" s="160">
         <v>2300</v>
@@ -16454,7 +16355,7 @@
       <c r="C60" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="298">
+      <c r="D60" s="271">
         <v>3500</v>
       </c>
       <c r="E60" s="211" t="s">
@@ -16576,7 +16477,7 @@
       <c r="C61" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="298">
+      <c r="D61" s="271">
         <v>129613</v>
       </c>
       <c r="E61" s="211" t="s">
@@ -16702,7 +16603,7 @@
         <v>25900</v>
       </c>
       <c r="E62" s="213" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F62" s="162"/>
       <c r="G62" s="169"/>
@@ -16716,7 +16617,7 @@
         <v>25900</v>
       </c>
       <c r="K62" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L62" s="160">
         <v>25900</v>
@@ -17232,7 +17133,7 @@
         <v>37320</v>
       </c>
       <c r="E67" s="212" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F67" s="163"/>
       <c r="G67" s="169"/>
@@ -17246,7 +17147,7 @@
         <v>80450</v>
       </c>
       <c r="K67" s="204" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L67" s="160">
         <v>80450</v>
@@ -17350,7 +17251,7 @@
       <c r="C68" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="D68" s="298">
+      <c r="D68" s="271">
         <v>10915</v>
       </c>
       <c r="E68" s="212" t="s">
@@ -17476,7 +17377,7 @@
         <v>31000</v>
       </c>
       <c r="E69" s="211" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F69" s="80"/>
       <c r="G69" s="169"/>
@@ -17490,7 +17391,7 @@
         <v>31888</v>
       </c>
       <c r="K69" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L69" s="160">
         <v>31888</v>
@@ -17598,7 +17499,7 @@
         <v>33000</v>
       </c>
       <c r="E70" s="212" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F70" s="163"/>
       <c r="G70" s="169"/>
@@ -17612,7 +17513,7 @@
         <v>33700</v>
       </c>
       <c r="K70" s="203" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L70" s="160">
         <v>33700</v>
@@ -17720,7 +17621,7 @@
         <v>31090</v>
       </c>
       <c r="E71" s="212" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F71" s="165"/>
       <c r="G71" s="169"/>
@@ -17734,7 +17635,7 @@
         <v>21000</v>
       </c>
       <c r="K71" s="139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L71" s="160">
         <v>21000</v>
@@ -17838,11 +17739,11 @@
       <c r="C72" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="298">
+      <c r="D72" s="271">
         <v>23000</v>
       </c>
       <c r="E72" s="213" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F72" s="165"/>
       <c r="G72" s="169"/>
@@ -17856,7 +17757,7 @@
         <v>23000</v>
       </c>
       <c r="K72" s="203" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L72" s="160">
         <v>23000</v>
@@ -17964,7 +17865,7 @@
         <v>15786</v>
       </c>
       <c r="E73" s="211" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F73" s="165"/>
       <c r="G73" s="169"/>
@@ -17978,7 +17879,7 @@
         <v>15786</v>
       </c>
       <c r="K73" s="204" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L73" s="160">
         <v>15786</v>
@@ -18082,7 +17983,7 @@
       <c r="C74" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="298">
+      <c r="D74" s="271">
         <v>22030</v>
       </c>
       <c r="E74" s="213" t="s">
@@ -18208,7 +18109,7 @@
         <v>2620</v>
       </c>
       <c r="E75" s="213" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F75" s="163"/>
       <c r="G75" s="169"/>
@@ -18222,7 +18123,7 @@
         <v>9730</v>
       </c>
       <c r="K75" s="139" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L75" s="160">
         <v>9730</v>
@@ -18636,7 +18537,7 @@
         <v>2660</v>
       </c>
       <c r="E79" s="212" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F79" s="163"/>
       <c r="G79" s="169"/>
@@ -18650,7 +18551,7 @@
         <v>2660</v>
       </c>
       <c r="K79" s="204" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L79" s="160">
         <v>2660</v>
@@ -18746,17 +18647,17 @@
     </row>
     <row r="80" spans="1:97">
       <c r="A80" s="268" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B80" s="73" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C80" s="139"/>
       <c r="D80" s="251">
         <v>8630</v>
       </c>
       <c r="E80" s="213" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F80" s="163" t="s">
         <v>13</v>
@@ -18772,7 +18673,7 @@
         <v>9500</v>
       </c>
       <c r="K80" s="204" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L80" s="160">
         <v>9500</v>
@@ -18880,7 +18781,7 @@
         <v>9000</v>
       </c>
       <c r="E81" s="212" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F81" s="163"/>
       <c r="G81" s="169"/>
@@ -18892,7 +18793,7 @@
         <v>50000</v>
       </c>
       <c r="K81" s="204" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L81" s="160">
         <v>50000</v>
@@ -18988,31 +18889,31 @@
     </row>
     <row r="82" spans="1:97">
       <c r="A82" s="268" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B82" s="73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C82" s="139"/>
       <c r="D82" s="251">
         <v>15000</v>
       </c>
       <c r="E82" s="212" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F82" s="165"/>
       <c r="G82" s="169"/>
       <c r="H82" s="226" t="s">
+        <v>175</v>
+      </c>
+      <c r="I82" s="75" t="s">
         <v>176</v>
-      </c>
-      <c r="I82" s="75" t="s">
-        <v>177</v>
       </c>
       <c r="J82" s="71">
         <v>8660</v>
       </c>
       <c r="K82" s="204" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L82" s="160">
         <v>8660</v>
@@ -19339,7 +19240,7 @@
       <c r="F85" s="165"/>
       <c r="G85" s="169"/>
       <c r="H85" s="226" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I85" s="75">
         <v>1737637222</v>
@@ -19671,16 +19572,16 @@
         <v>140</v>
       </c>
       <c r="B88" s="141" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" s="65" t="s">
         <v>172</v>
-      </c>
-      <c r="C88" s="65" t="s">
-        <v>173</v>
       </c>
       <c r="D88" s="248">
         <v>1000</v>
       </c>
       <c r="E88" s="209" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F88" s="163"/>
       <c r="G88" s="169"/>
@@ -19694,7 +19595,7 @@
         <v>20000</v>
       </c>
       <c r="K88" s="204" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L88" s="160">
         <v>20000</v>
@@ -19791,14 +19692,14 @@
     <row r="89" spans="1:97">
       <c r="A89" s="268"/>
       <c r="B89" s="73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C89" s="139"/>
       <c r="D89" s="251">
         <v>10000</v>
       </c>
       <c r="E89" s="212" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F89" s="163"/>
       <c r="G89" s="169"/>
@@ -19909,28 +19810,28 @@
     <row r="90" spans="1:97">
       <c r="A90" s="267"/>
       <c r="B90" s="73" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C90" s="139"/>
       <c r="D90" s="251">
         <v>2000</v>
       </c>
       <c r="E90" s="212" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F90" s="163"/>
       <c r="G90" s="169"/>
       <c r="H90" s="226" t="s">
+        <v>171</v>
+      </c>
+      <c r="I90" s="75" t="s">
         <v>172</v>
-      </c>
-      <c r="I90" s="75" t="s">
-        <v>173</v>
       </c>
       <c r="J90" s="71">
         <v>1000</v>
       </c>
       <c r="K90" s="204" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L90" s="160">
         <v>1000</v>
@@ -21865,14 +21766,14 @@
         <v>137</v>
       </c>
       <c r="B109" s="73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C109" s="139"/>
       <c r="D109" s="251">
         <v>7000</v>
       </c>
       <c r="E109" s="213" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" s="169"/>
       <c r="G109" s="169"/>
@@ -21972,19 +21873,19 @@
     </row>
     <row r="110" spans="1:97">
       <c r="A110" s="268" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="B110" s="73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C110" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="D110" s="317">
+      <c r="D110" s="289">
         <v>4800</v>
       </c>
       <c r="E110" s="213" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F110" s="169"/>
       <c r="G110" s="169"/>
@@ -22084,19 +21985,19 @@
     </row>
     <row r="111" spans="1:97">
       <c r="A111" s="268" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="B111" s="73" t="s">
+      <c r="C111" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="C111" s="139" t="s">
-        <v>177</v>
-      </c>
-      <c r="D111" s="317">
+      <c r="D111" s="289">
         <v>8660</v>
       </c>
       <c r="E111" s="213" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F111" s="169"/>
       <c r="G111" s="169"/>
@@ -22420,10 +22321,10 @@
     </row>
     <row r="114" spans="1:97">
       <c r="A114" s="268" t="s">
+        <v>165</v>
+      </c>
+      <c r="B114" s="73" t="s">
         <v>166</v>
-      </c>
-      <c r="B114" s="73" t="s">
-        <v>167</v>
       </c>
       <c r="C114" s="139">
         <v>1737637222</v>
@@ -22768,7 +22669,7 @@
         <v>10000</v>
       </c>
       <c r="E117" s="213" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F117" s="169"/>
       <c r="G117" s="169"/>
@@ -22876,7 +22777,7 @@
       <c r="C118" s="139">
         <v>1755626210</v>
       </c>
-      <c r="D118" s="299">
+      <c r="D118" s="272">
         <v>17500</v>
       </c>
       <c r="E118" s="214" t="s">
@@ -22979,14 +22880,14 @@
       <c r="CS118" s="169"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="359" t="s">
+      <c r="A119" s="331" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="360"/>
-      <c r="C119" s="372"/>
+      <c r="B119" s="332"/>
+      <c r="C119" s="344"/>
       <c r="D119" s="254">
         <f>SUM(D37:D118)</f>
-        <v>1865874</v>
+        <v>1864874</v>
       </c>
       <c r="E119" s="246"/>
       <c r="F119" s="169"/>
@@ -23186,14 +23087,14 @@
       <c r="CS120" s="169"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="359" t="s">
+      <c r="A121" s="331" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="360"/>
-      <c r="C121" s="360"/>
+      <c r="B121" s="332"/>
+      <c r="C121" s="332"/>
       <c r="D121" s="254">
         <f>D119+M121</f>
-        <v>1865874</v>
+        <v>1864874</v>
       </c>
       <c r="E121" s="246"/>
       <c r="F121" s="169"/>
@@ -33211,7 +33112,7 @@
   <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33229,35 +33130,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="373" t="s">
+      <c r="A1" s="345" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="375"/>
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="347"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="382" t="s">
+      <c r="A2" s="354" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="384"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="356"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="376" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="377"/>
-      <c r="C3" s="377"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="378"/>
+      <c r="A3" s="348" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="349"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="350"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -33284,13 +33185,13 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="23.25">
-      <c r="A4" s="385" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="386"/>
-      <c r="C4" s="386"/>
-      <c r="D4" s="386"/>
-      <c r="E4" s="387"/>
+      <c r="A4" s="357" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="358"/>
+      <c r="C4" s="358"/>
+      <c r="D4" s="358"/>
+      <c r="E4" s="359"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
       <c r="H4" s="8"/>
@@ -33317,13 +33218,13 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" ht="24" thickBot="1">
-      <c r="A5" s="385" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="386"/>
-      <c r="C5" s="386"/>
-      <c r="D5" s="386"/>
-      <c r="E5" s="387"/>
+      <c r="A5" s="357" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="358"/>
+      <c r="C5" s="358"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="359"/>
       <c r="F5" s="5"/>
       <c r="G5" s="56"/>
       <c r="H5" s="6"/>
@@ -33351,7 +33252,7 @@
     </row>
     <row r="6" spans="1:29" ht="22.5" thickBot="1">
       <c r="A6" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6" s="48">
         <v>8000000</v>
@@ -33364,11 +33265,11 @@
         <v>2566046.6534523801</v>
       </c>
       <c r="F6" s="41"/>
-      <c r="G6" s="330" t="s">
+      <c r="G6" s="302" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="303" t="s">
         <v>238</v>
-      </c>
-      <c r="H6" s="331" t="s">
-        <v>240</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -33407,9 +33308,9 @@
         <v>2350984</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="328"/>
-      <c r="H7" s="328"/>
-      <c r="I7" s="328"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -33442,9 +33343,9 @@
         <v>715553.13154762145</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="328"/>
-      <c r="H8" s="328"/>
-      <c r="I8" s="328"/>
+      <c r="G8" s="300"/>
+      <c r="H8" s="300"/>
+      <c r="I8" s="300"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -33470,12 +33371,12 @@
       <c r="A9" s="45"/>
       <c r="B9" s="48"/>
       <c r="C9" s="46"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="337"/>
+      <c r="D9" s="304"/>
+      <c r="E9" s="309"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="323"/>
-      <c r="H9" s="322"/>
-      <c r="I9" s="321"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="293"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -33508,8 +33409,8 @@
       <c r="D10" s="151"/>
       <c r="E10" s="152"/>
       <c r="F10" s="8"/>
-      <c r="H10" s="322"/>
-      <c r="I10" s="321"/>
+      <c r="H10" s="294"/>
+      <c r="I10" s="293"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -33533,7 +33434,7 @@
     </row>
     <row r="11" spans="1:29" ht="21.75">
       <c r="A11" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="48">
         <v>75300</v>
@@ -33546,9 +33447,9 @@
         <v>1865874</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="324"/>
-      <c r="H11" s="321"/>
-      <c r="I11" s="321"/>
+      <c r="G11" s="296"/>
+      <c r="H11" s="293"/>
+      <c r="I11" s="293"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -33571,10 +33472,10 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="1:29" ht="21.75">
-      <c r="A12" s="318" t="s">
+      <c r="A12" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="319">
+      <c r="B12" s="291">
         <f>B7+B8-B10-B11</f>
         <v>300093.78499999992</v>
       </c>
@@ -33586,9 +33487,9 @@
         <v>145770</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="323"/>
-      <c r="H12" s="322"/>
-      <c r="I12" s="322"/>
+      <c r="G12" s="295"/>
+      <c r="H12" s="294"/>
+      <c r="I12" s="294"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -33615,7 +33516,7 @@
       <c r="B13" s="52"/>
       <c r="C13" s="47"/>
       <c r="D13" s="46" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E13" s="50">
         <v>655865.99999999907</v>
@@ -33623,13 +33524,13 @@
       <c r="F13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="324" t="s">
+      <c r="G13" s="296" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="325"/>
+      <c r="I13" s="297"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -33653,14 +33554,14 @@
     </row>
     <row r="14" spans="1:29" ht="21.75">
       <c r="A14" s="158"/>
-      <c r="B14" s="320"/>
+      <c r="B14" s="292"/>
       <c r="C14" s="47"/>
       <c r="D14" s="153"/>
       <c r="E14" s="152"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="326"/>
-      <c r="H14" s="327"/>
-      <c r="I14" s="327"/>
+      <c r="G14" s="298"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="299"/>
       <c r="J14" s="8" t="s">
         <v>13</v>
       </c>
@@ -33798,13 +33699,13 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="379" t="s">
+      <c r="A18" s="351" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="380"/>
-      <c r="C18" s="380"/>
-      <c r="D18" s="380"/>
-      <c r="E18" s="381"/>
+      <c r="B18" s="352"/>
+      <c r="C18" s="352"/>
+      <c r="D18" s="352"/>
+      <c r="E18" s="353"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="17"/>
@@ -33840,10 +33741,10 @@
         <v>38000</v>
       </c>
       <c r="C19" s="46"/>
-      <c r="D19" s="335" t="s">
+      <c r="D19" s="307" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="329">
+      <c r="E19" s="301">
         <v>198886</v>
       </c>
       <c r="F19" s="5"/>
@@ -33879,10 +33780,10 @@
         <v>31000</v>
       </c>
       <c r="C20" s="46"/>
-      <c r="D20" s="336" t="s">
+      <c r="D20" s="308" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="338">
+      <c r="E20" s="310">
         <v>200000</v>
       </c>
       <c r="G20" s="19"/>
@@ -33949,7 +33850,7 @@
     </row>
     <row r="22" spans="1:29" ht="21.75">
       <c r="A22" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="60">
         <v>23000</v>
@@ -33987,7 +33888,7 @@
     </row>
     <row r="23" spans="1:29" ht="21.75">
       <c r="A23" s="146" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B23" s="147">
         <v>31090</v>
@@ -34025,7 +33926,7 @@
     </row>
     <row r="24" spans="1:29" ht="21.75">
       <c r="A24" s="146" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24" s="147">
         <v>22030</v>
@@ -34070,7 +33971,7 @@
       </c>
       <c r="C25" s="148"/>
       <c r="D25" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E25" s="62">
         <v>25900</v>
@@ -34099,7 +34000,7 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="1:29" ht="22.5" thickBot="1">
-      <c r="A26" s="339" t="s">
+      <c r="A26" s="311" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="149">
@@ -38843,418 +38744,4 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" style="280" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="276" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A1" s="278" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="277" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="282" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="300">
-        <f ca="1">TODAY()</f>
-        <v>44439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="286"/>
-      <c r="B2" s="287"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="289"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="290"/>
-      <c r="B3" s="293"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="289"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="290"/>
-      <c r="B4" s="293"/>
-      <c r="C4" s="292"/>
-      <c r="D4" s="285"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="286"/>
-      <c r="B5" s="287"/>
-      <c r="C5" s="288"/>
-      <c r="D5" s="285"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="290"/>
-      <c r="B6" s="291"/>
-      <c r="C6" s="292"/>
-      <c r="D6" s="285"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="290"/>
-      <c r="B7" s="291"/>
-      <c r="C7" s="292"/>
-      <c r="D7" s="285"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="290"/>
-      <c r="B8" s="291"/>
-      <c r="C8" s="292"/>
-      <c r="D8" s="285"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="290"/>
-      <c r="B9" s="291"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="289"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="286"/>
-      <c r="B10" s="287"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="285"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="273"/>
-      <c r="B11" s="274"/>
-      <c r="C11" s="283"/>
-      <c r="D11" s="271"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="290"/>
-      <c r="B12" s="291"/>
-      <c r="C12" s="292"/>
-      <c r="D12" s="285"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="290"/>
-      <c r="B13" s="293"/>
-      <c r="C13" s="292"/>
-      <c r="D13" s="289"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="290"/>
-      <c r="B14" s="291"/>
-      <c r="C14" s="292"/>
-      <c r="D14" s="285"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="290"/>
-      <c r="B15" s="291"/>
-      <c r="C15" s="292"/>
-      <c r="D15" s="289"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="290"/>
-      <c r="B16" s="291"/>
-      <c r="C16" s="292"/>
-      <c r="D16" s="285"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="294"/>
-      <c r="B17" s="295"/>
-      <c r="C17" s="296"/>
-      <c r="D17" s="285"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="290"/>
-      <c r="B18" s="291"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="26"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="290"/>
-      <c r="B19" s="291"/>
-      <c r="C19" s="292"/>
-      <c r="D19" s="285"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="290"/>
-      <c r="B20" s="291"/>
-      <c r="C20" s="292"/>
-      <c r="D20" s="285"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="290"/>
-      <c r="B21" s="291"/>
-      <c r="C21" s="292"/>
-      <c r="D21" s="289"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="272"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="253"/>
-      <c r="D22" s="281"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="290"/>
-      <c r="B23" s="291"/>
-      <c r="C23" s="292"/>
-      <c r="D23" s="285"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="290"/>
-      <c r="B24" s="291"/>
-      <c r="C24" s="292"/>
-      <c r="D24" s="285"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="290"/>
-      <c r="B25" s="291"/>
-      <c r="C25" s="292"/>
-      <c r="D25" s="285"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="290"/>
-      <c r="B26" s="291"/>
-      <c r="C26" s="292"/>
-      <c r="D26" s="289"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="286"/>
-      <c r="B27" s="287"/>
-      <c r="C27" s="288"/>
-      <c r="D27" s="289"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="290"/>
-      <c r="B28" s="291"/>
-      <c r="C28" s="292"/>
-      <c r="D28" s="289"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="290"/>
-      <c r="B29" s="291"/>
-      <c r="C29" s="292"/>
-      <c r="D29" s="285"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="290"/>
-      <c r="B30" s="291"/>
-      <c r="C30" s="292"/>
-      <c r="D30" s="289"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="290"/>
-      <c r="B31" s="291"/>
-      <c r="C31" s="292"/>
-      <c r="D31" s="285"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="294"/>
-      <c r="B32" s="295"/>
-      <c r="C32" s="296"/>
-      <c r="D32" s="285"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="290"/>
-      <c r="B33" s="291"/>
-      <c r="C33" s="292"/>
-      <c r="D33" s="289"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="294"/>
-      <c r="B34" s="295"/>
-      <c r="C34" s="296"/>
-      <c r="D34" s="285"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="294"/>
-      <c r="B35" s="295"/>
-      <c r="C35" s="296"/>
-      <c r="D35" s="285"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="297"/>
-      <c r="B36" s="287"/>
-      <c r="C36" s="288"/>
-      <c r="D36" s="289"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="286"/>
-      <c r="B37" s="287"/>
-      <c r="C37" s="288"/>
-      <c r="D37" s="285"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="290"/>
-      <c r="B38" s="291"/>
-      <c r="C38" s="292"/>
-      <c r="D38" s="285"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="272"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="253"/>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="272"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="253"/>
-      <c r="D40" s="33"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="272"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="253"/>
-      <c r="D41" s="33"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="273"/>
-      <c r="B42" s="274"/>
-      <c r="C42" s="283"/>
-      <c r="D42" s="33"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="279"/>
-      <c r="B43" s="275"/>
-      <c r="C43" s="284"/>
-      <c r="D43" s="33"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="279"/>
-      <c r="B44" s="275"/>
-      <c r="C44" s="284"/>
-      <c r="D44" s="33"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="279"/>
-      <c r="B45" s="275"/>
-      <c r="C45" s="284"/>
-      <c r="D45" s="33"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="279"/>
-      <c r="B46" s="275"/>
-      <c r="C46" s="284"/>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="279"/>
-      <c r="B47" s="275"/>
-      <c r="C47" s="284"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="279"/>
-      <c r="B48" s="275"/>
-      <c r="C48" s="284"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="279"/>
-      <c r="B49" s="275"/>
-      <c r="C49" s="284"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="279"/>
-      <c r="B50" s="275"/>
-      <c r="C50" s="284"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="279"/>
-      <c r="B51" s="275"/>
-      <c r="C51" s="284"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="279"/>
-      <c r="B52" s="275"/>
-      <c r="C52" s="284"/>
-      <c r="D52" s="33"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="279"/>
-      <c r="B53" s="275"/>
-      <c r="C53" s="284"/>
-      <c r="D53" s="33"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="279"/>
-      <c r="B54" s="275"/>
-      <c r="C54" s="284"/>
-      <c r="D54" s="33"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="279"/>
-      <c r="B55" s="275"/>
-      <c r="C55" s="284"/>
-      <c r="D55" s="33"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="279"/>
-      <c r="B56" s="275"/>
-      <c r="C56" s="284"/>
-      <c r="D56" s="33"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="279"/>
-      <c r="B57" s="275"/>
-      <c r="C57" s="284"/>
-      <c r="D57" s="33"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="279"/>
-      <c r="B58" s="275"/>
-      <c r="C58" s="284"/>
-      <c r="D58" s="33"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="279"/>
-      <c r="B59" s="275"/>
-      <c r="C59" s="284"/>
-      <c r="D59" s="33"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="279"/>
-      <c r="B60" s="275"/>
-      <c r="C60" s="284"/>
-      <c r="D60" s="33"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="279"/>
-      <c r="B61" s="275"/>
-      <c r="C61" s="284"/>
-      <c r="D61" s="33"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="279"/>
-      <c r="B62" s="275"/>
-      <c r="C62" s="284"/>
-      <c r="D62" s="33"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="279"/>
-      <c r="B63" s="275"/>
-      <c r="C63" s="284"/>
-      <c r="D63" s="33"/>
-    </row>
-  </sheetData>
-  <sortState ref="A3:D38">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>